--- a/traveler_problem/comparition/result_sumulated_annealing.xlsx
+++ b/traveler_problem/comparition/result_sumulated_annealing.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>646.5451196229947</v>
+        <v>640.5549327788532</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3419223000018974</v>
+        <v>0.7355227000007289</v>
       </c>
       <c r="D2" t="n">
-        <v>5767</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>647.1664482645551</v>
+        <v>631.7267352731515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3492296999975224</v>
+        <v>0.3118516999966232</v>
       </c>
       <c r="D3" t="n">
-        <v>5521</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>623.6471575826617</v>
+        <v>639.0960287451163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3473569999987376</v>
+        <v>0.3167338999992353</v>
       </c>
       <c r="D4" t="n">
-        <v>5698</v>
+        <v>5938</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>653.7198288295396</v>
+        <v>655.6963477515736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.338498700002674</v>
+        <v>0.3145328000027803</v>
       </c>
       <c r="D5" t="n">
-        <v>5929</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>643.2087733374951</v>
+        <v>620.58963474527</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3277834000036819</v>
+        <v>0.2868736999953398</v>
       </c>
       <c r="D6" t="n">
-        <v>5984</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634.5156915759699</v>
+        <v>634.6228666917622</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3330566000004183</v>
+        <v>0.3255991999976686</v>
       </c>
       <c r="D7" t="n">
-        <v>5459</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>650.4247815156789</v>
+        <v>644.1695027350573</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3320131000000401</v>
+        <v>0.3700226000000839</v>
       </c>
       <c r="D8" t="n">
-        <v>5950</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>635.1912819883291</v>
+        <v>669.6714413696217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3365927999984706</v>
+        <v>0.331074499998067</v>
       </c>
       <c r="D9" t="n">
-        <v>5552</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>626.982821230039</v>
+        <v>626.5981153291286</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3523243999952683</v>
+        <v>0.3312871000016457</v>
       </c>
       <c r="D10" t="n">
-        <v>5056</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>638.7575909744965</v>
+        <v>623.7457798178324</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3308638000016799</v>
+        <v>0.3162479999955394</v>
       </c>
       <c r="D11" t="n">
-        <v>5972</v>
+        <v>5701</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632.645679565761</v>
+        <v>633.5266712207755</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3034145000056014</v>
+        <v>0.2859435999998823</v>
       </c>
       <c r="D12" t="n">
-        <v>5499</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>658.3606377935296</v>
+        <v>637.5189542881108</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3759476999985054</v>
+        <v>0.2990476999984821</v>
       </c>
       <c r="D13" t="n">
-        <v>5889</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672.5400255455702</v>
+        <v>645.5361216210318</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5900493000008282</v>
+        <v>0.329255299999204</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>624.8837504769967</v>
+        <v>629.9876061096764</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4019006000016816</v>
+        <v>0.3119225999980699</v>
       </c>
       <c r="D15" t="n">
-        <v>5837</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>639.1173517446416</v>
+        <v>641.4906983345653</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3064860999947996</v>
+        <v>0.3089981000011903</v>
       </c>
       <c r="D16" t="n">
-        <v>5973</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>623.3738377048624</v>
+        <v>646.4674921291316</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5072600999992574</v>
+        <v>0.3042394000003696</v>
       </c>
       <c r="D17" t="n">
-        <v>5824</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>654.5653974280158</v>
+        <v>640.5346425178116</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3934310999975423</v>
+        <v>0.2899522000006982</v>
       </c>
       <c r="D18" t="n">
-        <v>5890</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>624.6563582298111</v>
+        <v>626.387886183417</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3479119000039645</v>
+        <v>0.3080298999993829</v>
       </c>
       <c r="D19" t="n">
-        <v>5980</v>
+        <v>5526</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>633.9922684134083</v>
+        <v>632.6772158479276</v>
       </c>
       <c r="C20" t="n">
-        <v>0.333976599999005</v>
+        <v>0.3437588999950094</v>
       </c>
       <c r="D20" t="n">
-        <v>5258</v>
+        <v>5983</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>630.2922554081034</v>
+        <v>634.0839170025307</v>
       </c>
       <c r="C21" t="n">
-        <v>0.316708500002278</v>
+        <v>0.320959299999231</v>
       </c>
       <c r="D21" t="n">
-        <v>5676</v>
+        <v>5295</v>
       </c>
     </row>
   </sheetData>
